--- a/bots/crawl_ch/output/electronics_2022-08-04.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -1086,50 +1086,48 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4905479</t>
+          <t>6999749</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk.</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/coop-alkaline-batterie-lr6aa-4-stk/p/4905479</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>7</v>
-      </c>
+          <t>24ST</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,7 +1137,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1154,34 +1152,34 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk. 4.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>6762336</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>24ST</t>
+          <t>8ST</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1190,17 +1188,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1210,7 +1208,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1220,58 +1218,60 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6762336</t>
+          <t>4905479</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
+          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/coop-alkaline-batterie-lr6aa-4-stk/p/4905479</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
+          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk. 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -1447,50 +1447,50 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4905485</t>
+          <t>6153846</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 6LP3146/9V 4.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -1591,50 +1591,50 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6153846</t>
+          <t>4905485</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
+          <t>Alkaline Batterie 6LP3146/9V</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-6lp31469v/p/4905485</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1659,12 +1659,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 6LP3146/9V 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -1735,24 +1735,24 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3494233</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1760,25 +1760,23 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1788,7 +1786,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1803,29 +1801,29 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>3494066</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Varta Longlife Power 9V 1er Bli</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1833,23 +1831,25 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>8.95/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1874,29 +1874,29 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>3494233</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Varta Electronics CR2032 1er Bli</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1947,29 +1947,29 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3494066</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-9v-1er-bli/p/3494066</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8.95/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2020,12 +2020,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Varta Longlife Power 9V 1er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -2453,36 +2453,36 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3494133</t>
+          <t>3494130</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli</t>
+          <t>Varta Longlife Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2491,12 +2491,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2521,41 +2521,41 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3494130</t>
+          <t>3494133</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli</t>
+          <t>Varta Longlife Power AA 8er Bli</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-8er-bli/p/3494133</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>8ST</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>1.87/1ST</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 8er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -2818,131 +2818,131 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4942597</t>
+          <t>3494909</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz</t>
+          <t>Varta Electronics V23GA 1er Bli</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>3.95/1ST</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
+          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3494909</t>
+          <t>4942597</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli</t>
+          <t>Skross Adapter Europa-Schweiz</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v23ga-1er-bli/p/3494909</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-europa-schweiz/p/4942597</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>3.95/1ST</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Varta Electronics V23GA 1er Bli 3.95 Schweizer Franken</t>
+          <t>Skross Adapter Europa-Schweiz 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -3139,29 +3139,29 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>6986541</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>Duracell Batterie (CR2032, 4 Stück)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -3170,17 +3170,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3200,46 +3200,44 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3494138</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>8ST</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3248,12 +3246,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1.87/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3263,7 +3261,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3273,39 +3271,39 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4358323</t>
+          <t>3494138</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>8ST</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -3316,17 +3314,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>1.87/1ST</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3336,7 +3334,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3346,42 +3344,42 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>5750424</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>satrap Vento HT2 Reisehaartrockner</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3390,7 +3388,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>119.00</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -3399,265 +3397,267 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5750424</t>
+          <t>4358323</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6986541</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück)</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>119.00</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>5751576</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>satrap Toasty 1 Toaster</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>3.98/1ST</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5751576</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>3.98/1ST</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
@@ -4656,158 +4656,158 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>6801740</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>Duracell Batterien PLUS AA/LR6 12 Stück</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12ST</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2.49/1ST</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AA/LR6 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4846,87 +4846,105 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>16.95</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Duracell Batterien PLUS AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4935,17 +4953,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4955,7 +4973,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4965,161 +4983,163 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6872591</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/bosch-kuechenmaschine-mum58243-1000w/p/6872591</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Bosch</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>239.50</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4.95/1ST</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Bosch Küchenmaschine MUM58243 1000W 50% Aktion 239.50 Schweizer Franken statt 479.00 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6801740</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -5128,17 +5148,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5148,7 +5168,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5158,120 +5178,102 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück 29.85 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>6867383</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück</t>
+          <t>Krups Kaffeevollautomat EA815B</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>12ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Krups</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>29.85</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2.49/1ST</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>349.50</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
+          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6867383</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Krups</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>349.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5280,51 +5282,49 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>6700107</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
-        <v>1</v>
-      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Miele</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>229.00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5333,34 +5333,34 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6700107</t>
+          <t>4881282</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
+          <t>Miele FJM HyClean 3D (4 Stück)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>229.00</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5389,29 +5389,29 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
+          <t>Miele FJM HyClean 3D (4 Stück) 17.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4881282</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück)</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -5421,12 +5421,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Miele</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -5435,34 +5435,34 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück) 17.95 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6831289</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Rowenta Staubsauger RO2933</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Rowenta</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5486,44 +5486,46 @@
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6831289</t>
+          <t>6288875</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Rowenta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5542,37 +5544,37 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6288875</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5581,7 +5583,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5590,42 +5592,40 @@
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="n">
-        <v>7</v>
-      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -5648,29 +5648,29 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>5831402</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>Satrap Mikrowelle Micro M2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -5699,29 +5699,29 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5831402</t>
+          <t>7016089</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2</t>
+          <t>Tefal Bügeleisen FV4961S0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -5731,12 +5731,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>69.90</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -5745,34 +5745,34 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>7016089</t>
+          <t>6821480</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>69.90</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -5801,29 +5801,29 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6821480</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -5833,12 +5833,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -5852,29 +5852,29 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -5903,29 +5903,29 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -5954,35 +5954,37 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4</v>
+      </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -5991,7 +5993,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -6005,87 +6007,105 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>29.95/1ST</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -6094,17 +6114,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6114,7 +6134,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6124,34 +6144,34 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6195,39 +6215,39 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -6241,12 +6261,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6256,7 +6276,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6266,39 +6286,39 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -6312,12 +6332,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6327,7 +6347,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6337,39 +6357,39 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>3591272</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife Max Power D 2er Bli</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -6388,7 +6408,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6398,7 +6418,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6408,88 +6428,17 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-08-04 07:04:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>3591272</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="n">
-        <v>0</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>4.98/1ST</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>2022-08-04 07:04:11</t>
+          <t>2022-08-04 20:57:36</t>
         </is>
       </c>
     </row>
